--- a/excel/3/2324 - Model.xlsx
+++ b/excel/3/2324 - Model.xlsx
@@ -9,14 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="20% Model" sheetId="1" r:id="rId1"/>
     <sheet name="Average Return" sheetId="2" r:id="rId2"/>
     <sheet name="5% Model" sheetId="3" r:id="rId3"/>
     <sheet name="Average Return for 5% Model" sheetId="4" r:id="rId4"/>
+    <sheet name="ROE Compare" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'ROE Compare'!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'ROE Compare'!$A$2:$A$37</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'ROE Compare'!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'ROE Compare'!$C$2:$C$37</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'ROE Compare'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'ROE Compare'!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'ROE Compare'!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'ROE Compare'!$C$2:$C$37</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'ROE Compare'!$A$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'ROE Compare'!$A$2:$A$37</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'ROE Compare'!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'ROE Compare'!$B$2:$B$37</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Year</t>
   </si>
@@ -84,6 +99,12 @@
   </si>
   <si>
     <t>Annual Return</t>
+  </si>
+  <si>
+    <t>20% Downpayment</t>
+  </si>
+  <si>
+    <t>5% Downpayment</t>
   </si>
 </sst>
 </file>
@@ -155,7 +176,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -178,6 +199,8 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3105,6 +3128,815 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ROE Projection</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> with Varying Downpayments</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ROE Compare'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20% Downpayment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ROE Compare'!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ROE Compare'!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>9.6299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3700000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1300000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5599999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2600000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.51E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4300000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.1099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0499999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9500000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8599999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D03B-8747-AEAB-439B5CB7C2C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ROE Compare'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5% Downpayment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ROE Compare'!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2051</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2052</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ROE Compare'!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6699999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3799999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8900000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6900000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.6899999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5800000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4899999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.2400000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0400000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9199999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D03B-8747-AEAB-439B5CB7C2C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1318292655"/>
+        <c:axId val="1318686703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1318292655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318686703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1318686703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318292655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3226,6 +4058,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5303,6 +6175,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5453,6 +6841,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>298449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>256116</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA422E6-E2EB-5549-9765-D2D0B494237D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5760,8 +7189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="A62" zoomScale="101" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9600,8 +11029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC8BADC-ED43-914E-BD53-8FF167268A51}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D35" zoomScale="101" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13384,14 +14813,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1845CD-5EEF-C04B-96D9-6B772C3D7B98}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -13434,4 +14864,535 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC0CA0E-3F8A-7F41-B9F4-9FE588427DB3}">
+  <dimension ref="A1:C65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="22">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="22">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.1037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="22">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="C4" s="22">
+        <v>9.9900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="22">
+        <v>8.9200000000000002E-2</v>
+      </c>
+      <c r="C5" s="22">
+        <v>9.6699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="22">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="C6" s="22">
+        <v>9.3799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="22">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>9.1200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B8" s="22">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C8" s="22">
+        <v>8.8900000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="22">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="C9" s="22">
+        <v>8.6900000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B10" s="22">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="C10" s="22">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="C11" s="22">
+        <v>8.3400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B12" s="22">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="C12" s="22">
+        <v>8.1799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B13" s="22">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="C13" s="22">
+        <v>8.0399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B14" s="22">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="C14" s="22">
+        <v>7.9100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>2031</v>
+      </c>
+      <c r="B15" s="22">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C15" s="22">
+        <v>7.7899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>2032</v>
+      </c>
+      <c r="B16" s="22">
+        <v>7.51E-2</v>
+      </c>
+      <c r="C16" s="22">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>2033</v>
+      </c>
+      <c r="B17" s="22">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="C17" s="22">
+        <v>7.5800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>2034</v>
+      </c>
+      <c r="B18" s="22">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="C18" s="22">
+        <v>7.4899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2035</v>
+      </c>
+      <c r="B19" s="22">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="C19" s="22">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>2036</v>
+      </c>
+      <c r="B20" s="22">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="C20" s="22">
+        <v>7.3200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>2037</v>
+      </c>
+      <c r="B21" s="22">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="C21" s="22">
+        <v>7.2400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>2038</v>
+      </c>
+      <c r="B22" s="22">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="C22" s="22">
+        <v>7.17E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>2039</v>
+      </c>
+      <c r="B23" s="22">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="C23" s="22">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>2040</v>
+      </c>
+      <c r="B24" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C24" s="22">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>2041</v>
+      </c>
+      <c r="B25" s="22">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="C25" s="22">
+        <v>6.9800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>2042</v>
+      </c>
+      <c r="B26" s="22">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C26" s="22">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>2043</v>
+      </c>
+      <c r="B27" s="22">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="C27" s="22">
+        <v>6.8699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>2044</v>
+      </c>
+      <c r="B28" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C28" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>2045</v>
+      </c>
+      <c r="B29" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C29" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>2046</v>
+      </c>
+      <c r="B30" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C30" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>2047</v>
+      </c>
+      <c r="B31" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C31" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>2048</v>
+      </c>
+      <c r="B32" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C32" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>2049</v>
+      </c>
+      <c r="B33" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C33" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>2050</v>
+      </c>
+      <c r="B34" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C34" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>2051</v>
+      </c>
+      <c r="B35" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C35" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>2052</v>
+      </c>
+      <c r="B36" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C36" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>2053</v>
+      </c>
+      <c r="B37" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C37" s="22">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="C38" s="22"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="C39" s="22"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="C40" s="22"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="C41" s="22"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="C42" s="22"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="C43" s="22"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="C44" s="22"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="C45" s="22"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="C46" s="22"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="C47" s="22"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="C48" s="22"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="C49" s="22"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="C50" s="22"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="C51" s="22"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="C52" s="22"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="C53" s="22"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="C54" s="22"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="C55" s="22"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="C56" s="22"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="C57" s="22"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel/3/2324 - Model.xlsx
+++ b/excel/3/2324 - Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
   <sheets>
     <sheet name="20% Model" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,6 @@
     <sheet name="Average Return for 5% Model" sheetId="4" r:id="rId4"/>
     <sheet name="ROE Compare" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'ROE Compare'!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'ROE Compare'!$A$2:$A$37</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'ROE Compare'!$C$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'ROE Compare'!$C$2:$C$37</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'ROE Compare'!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'ROE Compare'!$B$2:$B$37</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'ROE Compare'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'ROE Compare'!$C$2:$C$37</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'ROE Compare'!$A$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'ROE Compare'!$A$2:$A$37</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'ROE Compare'!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'ROE Compare'!$B$2:$B$37</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7189,8 +7175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A70"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7591,6 +7577,7 @@
         <v>2019</v>
       </c>
       <c r="B8" s="4">
+        <f>B7</f>
         <v>0.03</v>
       </c>
       <c r="C8" s="5">
@@ -7649,7 +7636,7 @@
         <v>2020</v>
       </c>
       <c r="B9" s="4">
-        <f>B8</f>
+        <f t="shared" ref="B9:B70" si="10">B8</f>
         <v>0.03</v>
       </c>
       <c r="C9" s="5">
@@ -7664,7 +7651,7 @@
         <v>-363.49563655000003</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ref="F9:F39" si="10">F8*(1+B9)</f>
+        <f t="shared" ref="F9:F39" si="11">F8*(1+B9)</f>
         <v>1697.44</v>
       </c>
       <c r="G9" s="5">
@@ -7708,7 +7695,7 @@
         <v>2021</v>
       </c>
       <c r="B10" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C10" s="5">
@@ -7723,7 +7710,7 @@
         <v>-374.40050564650005</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1748.3632</v>
       </c>
       <c r="G10" s="5">
@@ -7767,7 +7754,7 @@
         <v>2022</v>
       </c>
       <c r="B11" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C11" s="5">
@@ -7782,7 +7769,7 @@
         <v>-385.63252081589508</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1800.8140960000001</v>
       </c>
       <c r="G11" s="5">
@@ -7826,7 +7813,7 @@
         <v>2023</v>
       </c>
       <c r="B12" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C12" s="5">
@@ -7841,7 +7828,7 @@
         <v>-397.20149644037195</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1854.83851888</v>
       </c>
       <c r="G12" s="5">
@@ -7885,7 +7872,7 @@
         <v>2024</v>
       </c>
       <c r="B13" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C13" s="5">
@@ -7900,7 +7887,7 @@
         <v>-409.11754133358312</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1910.4836744464001</v>
       </c>
       <c r="G13" s="5">
@@ -7944,7 +7931,7 @@
         <v>2025</v>
       </c>
       <c r="B14" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C14" s="5">
@@ -7959,7 +7946,7 @@
         <v>-421.39106757359065</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1967.798184679792</v>
       </c>
       <c r="G14" s="5">
@@ -8003,7 +7990,7 @@
         <v>2026</v>
       </c>
       <c r="B15" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C15" s="5">
@@ -8018,7 +8005,7 @@
         <v>-434.0327996007984</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2026.8321302201859</v>
       </c>
       <c r="G15" s="5">
@@ -8062,7 +8049,7 @@
         <v>2027</v>
       </c>
       <c r="B16" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C16" s="5">
@@ -8077,7 +8064,7 @@
         <v>-447.05378358882234</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2087.6370941267915</v>
       </c>
       <c r="G16" s="5">
@@ -8121,7 +8108,7 @@
         <v>2028</v>
       </c>
       <c r="B17" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C17" s="5">
@@ -8136,7 +8123,7 @@
         <v>-460.46539709648704</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2150.2662069505955</v>
       </c>
       <c r="G17" s="5">
@@ -8180,7 +8167,7 @@
         <v>2029</v>
       </c>
       <c r="B18" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C18" s="5">
@@ -8195,7 +8182,7 @@
         <v>-474.27935900938166</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2214.7741931591136</v>
       </c>
       <c r="G18" s="5">
@@ -8239,7 +8226,7 @@
         <v>2030</v>
       </c>
       <c r="B19" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C19" s="5">
@@ -8254,7 +8241,7 @@
         <v>-488.50773977966315</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2281.2174189538869</v>
       </c>
       <c r="G19" s="5">
@@ -8298,7 +8285,7 @@
         <v>2031</v>
       </c>
       <c r="B20" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C20" s="5">
@@ -8313,7 +8300,7 @@
         <v>-503.16297197305306</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2349.6539415225034</v>
       </c>
       <c r="G20" s="5">
@@ -8357,7 +8344,7 @@
         <v>2032</v>
       </c>
       <c r="B21" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C21" s="5">
@@ -8372,7 +8359,7 @@
         <v>-518.25786113224467</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2420.1435597681784</v>
       </c>
       <c r="G21" s="5">
@@ -8416,7 +8403,7 @@
         <v>2033</v>
       </c>
       <c r="B22" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C22" s="5">
@@ -8431,7 +8418,7 @@
         <v>-533.80559696621208</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2492.7478665612239</v>
       </c>
       <c r="G22" s="5">
@@ -8475,7 +8462,7 @@
         <v>2034</v>
       </c>
       <c r="B23" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C23" s="5">
@@ -8490,7 +8477,7 @@
         <v>-549.81976487519842</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2567.5303025580606</v>
       </c>
       <c r="G23" s="5">
@@ -8534,7 +8521,7 @@
         <v>2035</v>
       </c>
       <c r="B24" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C24" s="5">
@@ -8549,7 +8536,7 @@
         <v>-566.31435782145434</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2644.5562116348024</v>
       </c>
       <c r="G24" s="5">
@@ -8593,7 +8580,7 @@
         <v>2036</v>
       </c>
       <c r="B25" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C25" s="5">
@@ -8608,7 +8595,7 @@
         <v>-583.30378855609797</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2723.8928979838465</v>
       </c>
       <c r="G25" s="5">
@@ -8652,7 +8639,7 @@
         <v>2037</v>
       </c>
       <c r="B26" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C26" s="5">
@@ -8667,7 +8654,7 @@
         <v>-600.80290221278096</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2805.6096849233618</v>
       </c>
       <c r="G26" s="5">
@@ -8711,7 +8698,7 @@
         <v>2038</v>
       </c>
       <c r="B27" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C27" s="5">
@@ -8726,7 +8713,7 @@
         <v>-618.82698927916442</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2889.7779754710627</v>
       </c>
       <c r="G27" s="5">
@@ -8770,7 +8757,7 @@
         <v>2039</v>
       </c>
       <c r="B28" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C28" s="5">
@@ -8785,7 +8772,7 @@
         <v>-637.39179895753932</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2976.4713147351945</v>
       </c>
       <c r="G28" s="5">
@@ -8829,7 +8816,7 @@
         <v>2040</v>
       </c>
       <c r="B29" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C29" s="5">
@@ -8844,7 +8831,7 @@
         <v>-656.51355292626556</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3065.7654541772504</v>
       </c>
       <c r="G29" s="5">
@@ -8888,7 +8875,7 @@
         <v>2041</v>
       </c>
       <c r="B30" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C30" s="5">
@@ -8903,7 +8890,7 @@
         <v>-676.2089595140535</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3157.7384178025682</v>
       </c>
       <c r="G30" s="5">
@@ -8947,7 +8934,7 @@
         <v>2042</v>
       </c>
       <c r="B31" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C31" s="5">
@@ -8962,7 +8949,7 @@
         <v>-696.49522829947512</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3252.4705703366453</v>
       </c>
       <c r="G31" s="5">
@@ -9006,7 +8993,7 @@
         <v>2043</v>
       </c>
       <c r="B32" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C32" s="5">
@@ -9021,7 +9008,7 @@
         <v>-717.39008514845943</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3350.0446874467448</v>
       </c>
       <c r="G32" s="5">
@@ -9036,7 +9023,7 @@
         <v>360</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" ref="J32" si="11">-328457*((1+H32)^360-(1+H32)^I32)/((1+H32)^360-1)</f>
+        <f t="shared" ref="J32" si="12">-328457*((1+H32)^360-(1+H32)^I32)/((1+H32)^360-1)</f>
         <v>0</v>
       </c>
       <c r="K32" s="7">
@@ -9065,7 +9052,7 @@
         <v>2044</v>
       </c>
       <c r="B33" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C33" s="5">
@@ -9080,7 +9067,7 @@
         <v>-738.91178770291322</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3450.5460280701473</v>
       </c>
       <c r="G33" s="5">
@@ -9116,7 +9103,7 @@
         <v>2045</v>
       </c>
       <c r="B34" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C34" s="5">
@@ -9131,7 +9118,7 @@
         <v>-761.07914133400061</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3554.0624089122516</v>
       </c>
       <c r="G34" s="5">
@@ -9166,7 +9153,7 @@
         <v>2046</v>
       </c>
       <c r="B35" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C35" s="5">
@@ -9181,7 +9168,7 @@
         <v>-783.91151557402065</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3660.6842811796191</v>
       </c>
       <c r="G35" s="5">
@@ -9216,7 +9203,7 @@
         <v>2047</v>
       </c>
       <c r="B36" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C36" s="5">
@@ -9231,7 +9218,7 @@
         <v>-807.42886104124125</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3770.5048096150076</v>
       </c>
       <c r="G36" s="5">
@@ -9266,7 +9253,7 @@
         <v>2048</v>
       </c>
       <c r="B37" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C37" s="5">
@@ -9281,7 +9268,7 @@
         <v>-831.65172687247855</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3883.6199539034578</v>
       </c>
       <c r="G37" s="5">
@@ -9316,7 +9303,7 @@
         <v>2049</v>
       </c>
       <c r="B38" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C38" s="5">
@@ -9331,7 +9318,7 @@
         <v>-856.60127867865287</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4000.1285525205617</v>
       </c>
       <c r="G38" s="5">
@@ -9366,7 +9353,7 @@
         <v>2050</v>
       </c>
       <c r="B39" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C39" s="5">
@@ -9381,7 +9368,7 @@
         <v>-882.29931703901252</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4120.1324090961789</v>
       </c>
       <c r="G39" s="5">
@@ -9416,22 +9403,22 @@
         <v>2051</v>
       </c>
       <c r="B40" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C40" s="5">
         <v>0</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" ref="D40:D70" si="12">D39*(1+B40)</f>
+        <f t="shared" ref="D40:D70" si="13">D39*(1+B40)</f>
         <v>-516.19350558592225</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" ref="E40:E70" si="13">E39*(1+B40)</f>
+        <f t="shared" ref="E40:E70" si="14">E39*(1+B40)</f>
         <v>-908.76829655018287</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" ref="F40:F70" si="14">F39*(1+B40)</f>
+        <f t="shared" ref="F40:F70" si="15">F39*(1+B40)</f>
         <v>4243.7363813690645</v>
       </c>
       <c r="G40" s="5">
@@ -9441,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" ref="K40:K70" si="15">K39*(1+B40)</f>
+        <f t="shared" ref="K40:K70" si="16">K39*(1+B40)</f>
         <v>917920.17929012934</v>
       </c>
       <c r="L40" s="7">
@@ -9466,22 +9453,22 @@
         <v>2052</v>
       </c>
       <c r="B41" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C41" s="5">
         <v>0</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-531.67931075349998</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-936.03134544668842</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4371.0484728101364</v>
       </c>
       <c r="G41" s="5">
@@ -9491,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>945457.78466883325</v>
       </c>
       <c r="L41" s="7">
@@ -9516,22 +9503,22 @@
         <v>2053</v>
       </c>
       <c r="B42" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-547.62969007610502</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-964.11228581008913</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4502.1799269944404</v>
       </c>
       <c r="G42" s="5">
@@ -9541,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>973821.51820889825</v>
       </c>
       <c r="L42" s="7">
@@ -9566,22 +9553,22 @@
         <v>2054</v>
       </c>
       <c r="B43" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-564.0585807783882</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-993.03565438439182</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4637.2453248042739</v>
       </c>
       <c r="G43" s="5">
@@ -9591,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1003036.1637551652</v>
       </c>
       <c r="L43" s="7">
@@ -9616,22 +9603,22 @@
         <v>2055</v>
       </c>
       <c r="B44" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-580.98033820173987</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1022.8267240159236</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4776.3626845484023</v>
       </c>
       <c r="G44" s="5">
@@ -9641,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1033127.2486678201</v>
       </c>
       <c r="L44" s="7">
@@ -9666,22 +9653,22 @@
         <v>2056</v>
       </c>
       <c r="B45" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C45" s="5">
         <v>0</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-598.40974834779206</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1053.5115257364014</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4919.6535650848546</v>
       </c>
       <c r="G45" s="5">
@@ -9691,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1064121.0661278549</v>
       </c>
       <c r="L45" s="7">
@@ -9716,22 +9703,22 @@
         <v>2057</v>
       </c>
       <c r="B46" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-616.36204079822585</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1085.1168715084934</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5067.2431720374007</v>
       </c>
       <c r="G46" s="5">
@@ -9741,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1096044.6981116906</v>
       </c>
       <c r="L46" s="7">
@@ -9766,22 +9753,22 @@
         <v>2058</v>
       </c>
       <c r="B47" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C47" s="5">
         <v>0</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-634.85290202217266</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1117.6703776537483</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5219.2604671985227</v>
       </c>
       <c r="G47" s="5">
@@ -9791,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1128926.0390550413</v>
       </c>
       <c r="L47" s="7">
@@ -9816,22 +9803,22 @@
         <v>2059</v>
       </c>
       <c r="B48" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C48" s="5">
         <v>0</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-653.89848908283784</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1151.2004889833609</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5375.8382812144782</v>
       </c>
       <c r="G48" s="5">
@@ -9841,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1162793.8202266926</v>
       </c>
       <c r="L48" s="7">
@@ -9866,22 +9853,22 @@
         <v>2060</v>
       </c>
       <c r="B49" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-673.51544375532296</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1185.7365036528618</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5537.1134296509126</v>
       </c>
       <c r="G49" s="5">
@@ -9891,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1197677.6348334935</v>
       </c>
       <c r="L49" s="7">
@@ -9916,22 +9903,22 @@
         <v>2061</v>
       </c>
       <c r="B50" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C50" s="5">
         <v>0</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-693.72090706798269</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1221.3085987624477</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5703.2268325404402</v>
       </c>
       <c r="G50" s="5">
@@ -9941,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1233607.9638784984</v>
       </c>
       <c r="L50" s="7">
@@ -9966,22 +9953,22 @@
         <v>2062</v>
       </c>
       <c r="B51" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C51" s="5">
         <v>0</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-714.53253428002222</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1257.9478567253211</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5874.3236375166534</v>
       </c>
       <c r="G51" s="5">
@@ -9991,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1270616.2027948534</v>
       </c>
       <c r="L51" s="7">
@@ -10016,22 +10003,22 @@
         <v>2063</v>
       </c>
       <c r="B52" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C52" s="5">
         <v>0</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-735.96851030842288</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1295.6862924270808</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6050.553346642153</v>
       </c>
       <c r="G52" s="5">
@@ -10041,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1308734.688878699</v>
       </c>
       <c r="L52" s="7">
@@ -10066,22 +10053,22 @@
         <v>2064</v>
       </c>
       <c r="B53" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C53" s="5">
         <v>0</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-758.04756561767556</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1334.5568811998933</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6232.0699470414174</v>
       </c>
       <c r="G53" s="5">
@@ -10091,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1347996.7295450601</v>
       </c>
       <c r="L53" s="7">
@@ -10116,22 +10103,22 @@
         <v>2065</v>
       </c>
       <c r="B54" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C54" s="5">
         <v>0</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-780.78899258620584</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1374.5935876358901</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6419.03204545266</v>
       </c>
       <c r="G54" s="5">
@@ -10141,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1388436.631431412</v>
       </c>
       <c r="L54" s="7">
@@ -10166,22 +10153,22 @@
         <v>2066</v>
       </c>
       <c r="B55" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C55" s="5">
         <v>0</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-804.21266236379199</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1415.8313952649669</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6611.6030068162399</v>
       </c>
       <c r="G55" s="5">
@@ -10191,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1430089.7303743544</v>
       </c>
       <c r="L55" s="7">
@@ -10216,22 +10203,22 @@
         <v>2067</v>
       </c>
       <c r="B56" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C56" s="5">
         <v>0</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-828.33904223470574</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1458.3063371229159</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6809.9510970207275</v>
       </c>
       <c r="G56" s="5">
@@ -10241,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1472992.422285585</v>
       </c>
       <c r="L56" s="7">
@@ -10266,22 +10253,22 @@
         <v>2068</v>
       </c>
       <c r="B57" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C57" s="5">
         <v>0</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-853.18921350174696</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1502.0555272366034</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7014.2496299313498</v>
       </c>
       <c r="G57" s="5">
@@ -10291,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1517182.1949541525</v>
       </c>
       <c r="L57" s="7">
@@ -10316,22 +10303,22 @@
         <v>2069</v>
       </c>
       <c r="B58" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C58" s="5">
         <v>0</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-878.78488990679944</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1547.1171930537016</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7224.6771188292905</v>
       </c>
       <c r="G58" s="5">
@@ -10341,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1562697.6608027772</v>
       </c>
       <c r="L58" s="7">
@@ -10366,22 +10353,22 @@
         <v>2070</v>
       </c>
       <c r="B59" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-905.14843660400345</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1593.5307088453128</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7441.4174323941697</v>
       </c>
       <c r="G59" s="5">
@@ -10391,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1609578.5906268605</v>
       </c>
       <c r="L59" s="7">
@@ -10416,22 +10403,22 @@
         <v>2071</v>
       </c>
       <c r="B60" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C60" s="5">
         <v>0</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-932.30288970212359</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1641.3366301106723</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7664.6599553659953</v>
       </c>
       <c r="G60" s="5">
@@ -10441,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1657865.9483456663</v>
       </c>
       <c r="L60" s="7">
@@ -10466,22 +10453,22 @@
         <v>2072</v>
       </c>
       <c r="B61" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C61" s="5">
         <v>0</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-960.27197639318729</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1690.5767290139925</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7894.5997540269755</v>
       </c>
       <c r="G61" s="5">
@@ -10491,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1707601.9267960363</v>
       </c>
       <c r="L61" s="7">
@@ -10516,22 +10503,22 @@
         <v>2073</v>
       </c>
       <c r="B62" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C62" s="5">
         <v>0</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-989.08013568498291</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1741.2940308844122</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8131.4377466477854</v>
       </c>
       <c r="G62" s="5">
@@ -10541,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1758829.9845999174</v>
       </c>
       <c r="L62" s="7">
@@ -10566,22 +10553,22 @@
         <v>2074</v>
       </c>
       <c r="B63" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C63" s="5">
         <v>0</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1018.7525397555324</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1793.5328518109447</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8375.3808790472194</v>
       </c>
       <c r="G63" s="5">
@@ -10591,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1811594.884137915</v>
       </c>
       <c r="L63" s="7">
@@ -10616,22 +10603,22 @@
         <v>2075</v>
       </c>
       <c r="B64" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C64" s="5">
         <v>0</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1049.3151159481984</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1847.3388373652731</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8626.6423054186362</v>
       </c>
       <c r="G64" s="5">
@@ -10641,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1865942.7306620525</v>
       </c>
       <c r="L64" s="7">
@@ -10666,22 +10653,22 @@
         <v>2076</v>
       </c>
       <c r="B65" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C65" s="5">
         <v>0</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1080.7945694266443</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1902.7590024862313</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8885.4415745811948</v>
       </c>
       <c r="G65" s="5">
@@ -10691,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1921921.0125819142</v>
       </c>
       <c r="L65" s="7">
@@ -10716,22 +10703,22 @@
         <v>2077</v>
       </c>
       <c r="B66" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C66" s="5">
         <v>0</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1113.2184065094436</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1959.8417725608183</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9152.0048218186312</v>
       </c>
       <c r="G66" s="5">
@@ -10741,11 +10728,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1979578.6429593717</v>
       </c>
       <c r="L66" s="7">
-        <f t="shared" ref="L66:L70" si="16">J66+K66</f>
+        <f t="shared" ref="L66:L70" si="17">J66+K66</f>
         <v>1979578.6429593717</v>
       </c>
       <c r="M66" s="20">
@@ -10766,22 +10753,22 @@
         <v>2078</v>
       </c>
       <c r="B67" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C67" s="5">
         <v>0</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1146.6149587047271</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2018.6370257376429</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9426.56496647319</v>
       </c>
       <c r="G67" s="5">
@@ -10791,11 +10778,11 @@
         <v>0</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2038966.0022481529</v>
       </c>
       <c r="L67" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2038966.0022481529</v>
       </c>
       <c r="M67" s="20">
@@ -10816,22 +10803,22 @@
         <v>2079</v>
       </c>
       <c r="B68" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C68" s="5">
         <v>0</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1181.013407465869</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2079.1961365097723</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9709.3619154673852</v>
       </c>
       <c r="G68" s="5">
@@ -10841,23 +10828,23 @@
         <v>0</v>
       </c>
       <c r="K68" s="7">
-        <f t="shared" si="15"/>
-        <v>2100134.9823155976</v>
-      </c>
-      <c r="L68" s="7">
         <f t="shared" si="16"/>
         <v>2100134.9823155976</v>
       </c>
+      <c r="L68" s="7">
+        <f t="shared" si="17"/>
+        <v>2100134.9823155976</v>
+      </c>
       <c r="M68" s="20">
-        <f t="shared" ref="M68:M70" si="17">L68-L67+12*(C68+D68+E68+F68)+G68</f>
+        <f t="shared" ref="M68:M70" si="18">L68-L67+12*(C68+D68+E68+F68)+G68</f>
         <v>138558.80852534567</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" ref="N68:N70" si="18">M68/L67</f>
+        <f t="shared" ref="N68:N70" si="19">M68/L67</f>
         <v>6.7955428571428597E-2</v>
       </c>
       <c r="O68" s="8">
-        <f t="shared" ref="O68:O70" si="19">12*(C68+D68+E68+F68)+G68</f>
+        <f t="shared" ref="O68:O70" si="20">12*(C68+D68+E68+F68)+G68</f>
         <v>77389.828457900934</v>
       </c>
     </row>
@@ -10866,22 +10853,22 @@
         <v>2080</v>
       </c>
       <c r="B69" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C69" s="5">
         <v>0</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1216.443809689845</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2141.5720206050655</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10000.642772931407</v>
       </c>
       <c r="G69" s="5">
@@ -10891,23 +10878,23 @@
         <v>0</v>
       </c>
       <c r="K69" s="7">
-        <f t="shared" si="15"/>
-        <v>2163139.0317850658</v>
-      </c>
-      <c r="L69" s="7">
         <f t="shared" si="16"/>
         <v>2163139.0317850658</v>
       </c>
+      <c r="L69" s="7">
+        <f t="shared" si="17"/>
+        <v>2163139.0317850658</v>
+      </c>
       <c r="M69" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>142715.57278110617</v>
       </c>
       <c r="N69" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.7955428571428653E-2</v>
       </c>
       <c r="O69" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>79711.523311637968</v>
       </c>
     </row>
@@ -10916,22 +10903,22 @@
         <v>2081</v>
       </c>
       <c r="B70" s="4">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>0.03</v>
       </c>
       <c r="C70" s="5">
         <v>0</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1252.9371239805405</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2205.8191812232176</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10300.66205611935</v>
       </c>
       <c r="G70" s="5">
@@ -10941,23 +10928,23 @@
         <v>0</v>
       </c>
       <c r="K70" s="7">
-        <f t="shared" si="15"/>
-        <v>2228033.202738618</v>
-      </c>
-      <c r="L70" s="7">
         <f t="shared" si="16"/>
         <v>2228033.202738618</v>
       </c>
+      <c r="L70" s="7">
+        <f t="shared" si="17"/>
+        <v>2228033.202738618</v>
+      </c>
       <c r="M70" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>146997.03996453935</v>
       </c>
       <c r="N70" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.7955428571428639E-2</v>
       </c>
       <c r="O70" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>82102.86901098711</v>
       </c>
     </row>
@@ -14870,7 +14857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC0CA0E-3F8A-7F41-B9F4-9FE588427DB3}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
